--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +980,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1073,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1384,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1431,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1477,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1586,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1633,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1679,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1805,10 +1817,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1852,28 +1864,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1898,28 +1910,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2007,10 +2019,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2054,28 +2066,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2100,28 +2112,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2209,10 +2221,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2256,28 +2268,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2302,28 +2314,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2440,10 +2452,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2487,28 +2499,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2533,28 +2545,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2642,10 +2654,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2689,28 +2701,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2735,28 +2747,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2844,10 +2856,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2891,28 +2903,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2937,28 +2949,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3046,10 +3058,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3093,28 +3105,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3139,28 +3151,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3248,10 +3260,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3295,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3341,28 +3353,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3479,10 +3491,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3526,28 +3538,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3572,28 +3584,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3681,10 +3693,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3728,28 +3740,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3774,28 +3786,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3941,10 +3953,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3988,28 +4000,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4034,28 +4046,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4143,10 +4155,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4190,28 +4202,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4236,28 +4248,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4374,10 +4386,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4421,28 +4433,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4467,28 +4479,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4576,10 +4588,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4623,28 +4635,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4669,28 +4681,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4923,10 +4935,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4970,28 +4982,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5016,28 +5028,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5125,10 +5137,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5172,28 +5184,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5218,28 +5230,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5356,10 +5368,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5403,28 +5415,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5449,28 +5461,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5558,10 +5570,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5605,28 +5617,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5651,28 +5663,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5760,10 +5772,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5807,28 +5819,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5853,28 +5865,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6020,10 +6032,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6067,28 +6079,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6113,28 +6125,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6222,10 +6234,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6269,28 +6281,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6315,28 +6327,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6453,10 +6465,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6500,28 +6512,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6546,28 +6558,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6684,10 +6696,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6731,28 +6743,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6777,28 +6789,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6886,10 +6898,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6933,28 +6945,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6979,28 +6991,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7088,10 +7100,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7135,28 +7147,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7181,28 +7193,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7348,10 +7360,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7395,28 +7407,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7441,28 +7453,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7521,10 +7533,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7568,28 +7580,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7614,28 +7626,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7694,10 +7706,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7741,28 +7753,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7787,28 +7799,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7925,10 +7937,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7972,28 +7984,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8018,28 +8030,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8098,10 +8110,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8145,28 +8157,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8191,28 +8203,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8300,10 +8312,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8347,28 +8359,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8393,28 +8405,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8502,10 +8514,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8549,28 +8561,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8595,28 +8607,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8675,10 +8687,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
